--- a/Abilities.xlsx
+++ b/Abilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okan2\Desktop\Seminar\Code\AgentsAndDragons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E4E5B-C265-4DC8-94C4-A9D690D93409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044394B-6781-4F55-82D4-D198CEA06211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Dark Obliteration</t>
+  </si>
+  <si>
+    <t>Conjures shadows to crush foes, inflicting heavy damage.</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Engulfs enemies in flames, causing widespread damage.</t>
+  </si>
+  <si>
+    <t>Magic Explosion</t>
+  </si>
+  <si>
+    <t>Creates a huge explosion using the full power of the user's magic.</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Inferno</t>
   </si>
 </sst>
 </file>
@@ -102,9 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -127,8 +152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E773607F-1F7E-4E4A-B124-37C3099C265E}" name="Tabelle1" displayName="Tabelle1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{E773607F-1F7E-4E4A-B124-37C3099C265E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E773607F-1F7E-4E4A-B124-37C3099C265E}" name="Tabelle1" displayName="Tabelle1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{E773607F-1F7E-4E4A-B124-37C3099C265E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BBCEC942-9786-4889-AE4F-6279B3EB80BB}" name="Name"/>
     <tableColumn id="2" xr3:uid="{E9EA3011-C7D4-4E14-9BBD-B5B6EE5D43DF}" name="Description"/>
@@ -403,16 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,6 +509,57 @@
       </c>
       <c r="E4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
